--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Grn-Tnfrsf1b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Grn-Tnfrsf1b.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>24.50527833333333</v>
+        <v>33.36960033333333</v>
       </c>
       <c r="H2">
-        <v>73.515835</v>
+        <v>100.108801</v>
       </c>
       <c r="I2">
-        <v>0.04846830138877924</v>
+        <v>0.07727383968381614</v>
       </c>
       <c r="J2">
-        <v>0.04846830138877923</v>
+        <v>0.07727383968381614</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.84297166666667</v>
+        <v>12.57753066666667</v>
       </c>
       <c r="N2">
-        <v>35.528915</v>
+        <v>37.732592</v>
       </c>
       <c r="O2">
-        <v>0.1201507426883529</v>
+        <v>0.1317204310459389</v>
       </c>
       <c r="P2">
-        <v>0.1201507426883529</v>
+        <v>0.1317204310459389</v>
       </c>
       <c r="Q2">
-        <v>290.2153169854472</v>
+        <v>419.7071715269102</v>
       </c>
       <c r="R2">
-        <v>2611.937852869024</v>
+        <v>3777.364543742191</v>
       </c>
       <c r="S2">
-        <v>0.005823502408704753</v>
+        <v>0.01017854347172704</v>
       </c>
       <c r="T2">
-        <v>0.005823502408704753</v>
+        <v>0.01017854347172704</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>24.50527833333333</v>
+        <v>33.36960033333333</v>
       </c>
       <c r="H3">
-        <v>73.515835</v>
+        <v>100.108801</v>
       </c>
       <c r="I3">
-        <v>0.04846830138877924</v>
+        <v>0.07727383968381614</v>
       </c>
       <c r="J3">
-        <v>0.04846830138877923</v>
+        <v>0.07727383968381614</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>32.821884</v>
       </c>
       <c r="O3">
-        <v>0.1109961770302011</v>
+        <v>0.1145776761962127</v>
       </c>
       <c r="P3">
-        <v>0.1109961770302011</v>
+        <v>0.1145776761962127</v>
       </c>
       <c r="Q3">
-        <v>268.10313428146</v>
+        <v>365.0843837556759</v>
       </c>
       <c r="R3">
-        <v>2412.92820853314</v>
+        <v>3285.759453801084</v>
       </c>
       <c r="S3">
-        <v>0.005379796161302082</v>
+        <v>0.008853856981730334</v>
       </c>
       <c r="T3">
-        <v>0.005379796161302082</v>
+        <v>0.008853856981730334</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>24.50527833333333</v>
+        <v>33.36960033333333</v>
       </c>
       <c r="H4">
-        <v>73.515835</v>
+        <v>100.108801</v>
       </c>
       <c r="I4">
-        <v>0.04846830138877924</v>
+        <v>0.07727383968381614</v>
       </c>
       <c r="J4">
-        <v>0.04846830138877923</v>
+        <v>0.07727383968381614</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.513102666666666</v>
+        <v>2.520244333333333</v>
       </c>
       <c r="N4">
-        <v>7.539307999999999</v>
+        <v>7.560733</v>
       </c>
       <c r="O4">
-        <v>0.02549623188763971</v>
+        <v>0.02639370785296846</v>
       </c>
       <c r="P4">
-        <v>0.02549623188763971</v>
+        <v>0.02639370785296846</v>
       </c>
       <c r="Q4">
-        <v>61.58428032690887</v>
+        <v>84.09954614568144</v>
       </c>
       <c r="R4">
-        <v>554.2585229421799</v>
+        <v>756.895915311133</v>
       </c>
       <c r="S4">
-        <v>0.001235759051408325</v>
+        <v>0.002039543149291764</v>
       </c>
       <c r="T4">
-        <v>0.001235759051408325</v>
+        <v>0.002039543149291764</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>24.50527833333333</v>
+        <v>33.36960033333333</v>
       </c>
       <c r="H5">
-        <v>73.515835</v>
+        <v>100.108801</v>
       </c>
       <c r="I5">
-        <v>0.04846830138877924</v>
+        <v>0.07727383968381614</v>
       </c>
       <c r="J5">
-        <v>0.04846830138877923</v>
+        <v>0.07727383968381614</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>73.27090866666667</v>
+        <v>69.44815566666666</v>
       </c>
       <c r="N5">
-        <v>219.812726</v>
+        <v>208.344467</v>
       </c>
       <c r="O5">
-        <v>0.7433568483938062</v>
+        <v>0.7273081849048799</v>
       </c>
       <c r="P5">
-        <v>0.7433568483938062</v>
+        <v>0.7273081849048799</v>
       </c>
       <c r="Q5">
-        <v>1795.524010612912</v>
+        <v>2317.457198483785</v>
       </c>
       <c r="R5">
-        <v>16159.71609551621</v>
+        <v>20857.11478635407</v>
       </c>
       <c r="S5">
-        <v>0.03602924376736408</v>
+        <v>0.05620189608106699</v>
       </c>
       <c r="T5">
-        <v>0.03602924376736407</v>
+        <v>0.05620189608106699</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>330.594292</v>
       </c>
       <c r="I6">
-        <v>0.2179577200213544</v>
+        <v>0.2551852590901843</v>
       </c>
       <c r="J6">
-        <v>0.2179577200213544</v>
+        <v>0.2551852590901843</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.84297166666667</v>
+        <v>12.57753066666667</v>
       </c>
       <c r="N6">
-        <v>35.528915</v>
+        <v>37.732592</v>
       </c>
       <c r="O6">
-        <v>0.1201507426883529</v>
+        <v>0.1317204310459389</v>
       </c>
       <c r="P6">
-        <v>0.1201507426883529</v>
+        <v>0.1317204310459389</v>
       </c>
       <c r="Q6">
-        <v>1305.072944439242</v>
+        <v>1386.019948618318</v>
       </c>
       <c r="R6">
-        <v>11745.65649995318</v>
+        <v>12474.17953756486</v>
       </c>
       <c r="S6">
-        <v>0.02618778193522582</v>
+        <v>0.03361311232392867</v>
       </c>
       <c r="T6">
-        <v>0.02618778193522582</v>
+        <v>0.03361311232392867</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>330.594292</v>
       </c>
       <c r="I7">
-        <v>0.2179577200213544</v>
+        <v>0.2551852590901843</v>
       </c>
       <c r="J7">
-        <v>0.2179577200213544</v>
+        <v>0.2551852590901843</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>32.821884</v>
       </c>
       <c r="O7">
-        <v>0.1109961770302011</v>
+        <v>0.1145776761962127</v>
       </c>
       <c r="P7">
-        <v>0.1109961770302011</v>
+        <v>0.1145776761962127</v>
       </c>
       <c r="Q7">
         <v>1205.636389231792</v>
@@ -883,10 +883,10 @@
         <v>10850.72750308613</v>
       </c>
       <c r="S7">
-        <v>0.02419247367658927</v>
+        <v>0.02923853398608177</v>
       </c>
       <c r="T7">
-        <v>0.02419247367658927</v>
+        <v>0.02923853398608177</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>330.594292</v>
       </c>
       <c r="I8">
-        <v>0.2179577200213544</v>
+        <v>0.2551852590901843</v>
       </c>
       <c r="J8">
-        <v>0.2179577200213544</v>
+        <v>0.2551852590901843</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.513102666666666</v>
+        <v>2.520244333333333</v>
       </c>
       <c r="N8">
-        <v>7.539307999999999</v>
+        <v>7.560733</v>
       </c>
       <c r="O8">
-        <v>0.02549623188763971</v>
+        <v>0.02639370785296846</v>
       </c>
       <c r="P8">
-        <v>0.02549623188763971</v>
+        <v>0.02639370785296846</v>
       </c>
       <c r="Q8">
-        <v>276.9391322699929</v>
+        <v>277.7261303484485</v>
       </c>
       <c r="R8">
-        <v>2492.452190429936</v>
+        <v>2499.535173136036</v>
       </c>
       <c r="S8">
-        <v>0.005557100571365704</v>
+        <v>0.006735285176810388</v>
       </c>
       <c r="T8">
-        <v>0.005557100571365704</v>
+        <v>0.006735285176810388</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>330.594292</v>
       </c>
       <c r="I9">
-        <v>0.2179577200213544</v>
+        <v>0.2551852590901843</v>
       </c>
       <c r="J9">
-        <v>0.2179577200213544</v>
+        <v>0.2551852590901843</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>73.27090866666667</v>
+        <v>69.44815566666666</v>
       </c>
       <c r="N9">
-        <v>219.812726</v>
+        <v>208.344467</v>
       </c>
       <c r="O9">
-        <v>0.7433568483938062</v>
+        <v>0.7273081849048799</v>
       </c>
       <c r="P9">
-        <v>0.7433568483938062</v>
+        <v>0.7273081849048799</v>
       </c>
       <c r="Q9">
-        <v>8074.314724951111</v>
+        <v>7653.054617775818</v>
       </c>
       <c r="R9">
-        <v>72668.83252455998</v>
+        <v>68877.49155998237</v>
       </c>
       <c r="S9">
-        <v>0.1620203638381736</v>
+        <v>0.1855983276033634</v>
       </c>
       <c r="T9">
-        <v>0.1620203638381736</v>
+        <v>0.1855983276033634</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>19.17031833333333</v>
+        <v>13.90116633333333</v>
       </c>
       <c r="H10">
-        <v>57.510955</v>
+        <v>41.703499</v>
       </c>
       <c r="I10">
-        <v>0.03791643392333802</v>
+        <v>0.0321908709702775</v>
       </c>
       <c r="J10">
-        <v>0.03791643392333802</v>
+        <v>0.0321908709702775</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>11.84297166666667</v>
+        <v>12.57753066666667</v>
       </c>
       <c r="N10">
-        <v>35.528915</v>
+        <v>37.732592</v>
       </c>
       <c r="O10">
-        <v>0.1201507426883529</v>
+        <v>0.1317204310459389</v>
       </c>
       <c r="P10">
-        <v>0.1201507426883529</v>
+        <v>0.1317204310459389</v>
       </c>
       <c r="Q10">
-        <v>227.0335368626472</v>
+        <v>174.8423458599342</v>
       </c>
       <c r="R10">
-        <v>2043.301831763825</v>
+        <v>1573.581112739408</v>
       </c>
       <c r="S10">
-        <v>0.004555687695982922</v>
+        <v>0.004240195399949153</v>
       </c>
       <c r="T10">
-        <v>0.004555687695982922</v>
+        <v>0.004240195399949153</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>19.17031833333333</v>
+        <v>13.90116633333333</v>
       </c>
       <c r="H11">
-        <v>57.510955</v>
+        <v>41.703499</v>
       </c>
       <c r="I11">
-        <v>0.03791643392333802</v>
+        <v>0.0321908709702775</v>
       </c>
       <c r="J11">
-        <v>0.03791643392333802</v>
+        <v>0.0321908709702775</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>32.821884</v>
       </c>
       <c r="O11">
-        <v>0.1109961770302011</v>
+        <v>0.1145776761962127</v>
       </c>
       <c r="P11">
-        <v>0.1109961770302011</v>
+        <v>0.1145776761962127</v>
       </c>
       <c r="Q11">
-        <v>209.73532152658</v>
+        <v>152.087489619124</v>
       </c>
       <c r="R11">
-        <v>1887.61789373922</v>
+        <v>1368.787406572116</v>
       </c>
       <c r="S11">
-        <v>0.004208579212108749</v>
+        <v>0.003688355190506518</v>
       </c>
       <c r="T11">
-        <v>0.004208579212108749</v>
+        <v>0.003688355190506518</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>19.17031833333333</v>
+        <v>13.90116633333333</v>
       </c>
       <c r="H12">
-        <v>57.510955</v>
+        <v>41.703499</v>
       </c>
       <c r="I12">
-        <v>0.03791643392333802</v>
+        <v>0.0321908709702775</v>
       </c>
       <c r="J12">
-        <v>0.03791643392333802</v>
+        <v>0.0321908709702775</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.513102666666666</v>
+        <v>2.520244333333333</v>
       </c>
       <c r="N12">
-        <v>7.539307999999999</v>
+        <v>7.560733</v>
       </c>
       <c r="O12">
-        <v>0.02549623188763971</v>
+        <v>0.02639370785296846</v>
       </c>
       <c r="P12">
-        <v>0.02549623188763971</v>
+        <v>0.02639370785296846</v>
       </c>
       <c r="Q12">
-        <v>48.17697812434889</v>
+        <v>35.03433567830745</v>
       </c>
       <c r="R12">
-        <v>433.59280311914</v>
+        <v>315.309021104767</v>
       </c>
       <c r="S12">
-        <v>0.0009667261916617946</v>
+        <v>0.0008496364439221077</v>
       </c>
       <c r="T12">
-        <v>0.0009667261916617947</v>
+        <v>0.0008496364439221077</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>19.17031833333333</v>
+        <v>13.90116633333333</v>
       </c>
       <c r="H13">
-        <v>57.510955</v>
+        <v>41.703499</v>
       </c>
       <c r="I13">
-        <v>0.03791643392333802</v>
+        <v>0.0321908709702775</v>
       </c>
       <c r="J13">
-        <v>0.03791643392333802</v>
+        <v>0.0321908709702775</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>73.27090866666667</v>
+        <v>69.44815566666666</v>
       </c>
       <c r="N13">
-        <v>219.812726</v>
+        <v>208.344467</v>
       </c>
       <c r="O13">
-        <v>0.7433568483938062</v>
+        <v>0.7273081849048799</v>
       </c>
       <c r="P13">
-        <v>0.7433568483938062</v>
+        <v>0.7273081849048799</v>
       </c>
       <c r="Q13">
-        <v>1404.626643712592</v>
+        <v>965.4103634655593</v>
       </c>
       <c r="R13">
-        <v>12641.63979341333</v>
+        <v>8688.693271190034</v>
       </c>
       <c r="S13">
-        <v>0.02818544082358455</v>
+        <v>0.02341268393589972</v>
       </c>
       <c r="T13">
-        <v>0.02818544082358455</v>
+        <v>0.02341268393589972</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>351.7202226666666</v>
+        <v>274.366806</v>
       </c>
       <c r="H14">
-        <v>1055.160668</v>
+        <v>823.100418</v>
       </c>
       <c r="I14">
-        <v>0.6956575446665283</v>
+        <v>0.635350030255722</v>
       </c>
       <c r="J14">
-        <v>0.6956575446665283</v>
+        <v>0.635350030255722</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>11.84297166666667</v>
+        <v>12.57753066666667</v>
       </c>
       <c r="N14">
-        <v>35.528915</v>
+        <v>37.732592</v>
       </c>
       <c r="O14">
-        <v>0.1201507426883529</v>
+        <v>0.1317204310459389</v>
       </c>
       <c r="P14">
-        <v>0.1201507426883529</v>
+        <v>0.1317204310459389</v>
       </c>
       <c r="Q14">
-        <v>4165.412631635024</v>
+        <v>3450.856916380384</v>
       </c>
       <c r="R14">
-        <v>37488.71368471521</v>
+        <v>31057.71224742345</v>
       </c>
       <c r="S14">
-        <v>0.08358377064843941</v>
+        <v>0.08368857985033402</v>
       </c>
       <c r="T14">
-        <v>0.08358377064843943</v>
+        <v>0.08368857985033402</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>351.7202226666666</v>
+        <v>274.366806</v>
       </c>
       <c r="H15">
-        <v>1055.160668</v>
+        <v>823.100418</v>
       </c>
       <c r="I15">
-        <v>0.6956575446665283</v>
+        <v>0.635350030255722</v>
       </c>
       <c r="J15">
-        <v>0.6956575446665283</v>
+        <v>0.635350030255722</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>32.821884</v>
       </c>
       <c r="O15">
-        <v>0.1109961770302011</v>
+        <v>0.1145776761962127</v>
       </c>
       <c r="P15">
-        <v>0.1109961770302011</v>
+        <v>0.1145776761962127</v>
       </c>
       <c r="Q15">
-        <v>3848.040116273167</v>
+        <v>3001.745159994167</v>
       </c>
       <c r="R15">
-        <v>34632.36104645851</v>
+        <v>27015.70643994751</v>
       </c>
       <c r="S15">
-        <v>0.077215327980201</v>
+        <v>0.07279693003789404</v>
       </c>
       <c r="T15">
-        <v>0.07721532798020102</v>
+        <v>0.07279693003789404</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>351.7202226666666</v>
+        <v>274.366806</v>
       </c>
       <c r="H16">
-        <v>1055.160668</v>
+        <v>823.100418</v>
       </c>
       <c r="I16">
-        <v>0.6956575446665283</v>
+        <v>0.635350030255722</v>
       </c>
       <c r="J16">
-        <v>0.6956575446665283</v>
+        <v>0.635350030255722</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.513102666666666</v>
+        <v>2.520244333333333</v>
       </c>
       <c r="N16">
-        <v>7.539307999999999</v>
+        <v>7.560733</v>
       </c>
       <c r="O16">
-        <v>0.02549623188763971</v>
+        <v>0.02639370785296846</v>
       </c>
       <c r="P16">
-        <v>0.02549623188763971</v>
+        <v>0.02639370785296846</v>
       </c>
       <c r="Q16">
-        <v>883.9090295041935</v>
+        <v>691.471388076266</v>
       </c>
       <c r="R16">
-        <v>7955.181265537743</v>
+        <v>6223.242492686394</v>
       </c>
       <c r="S16">
-        <v>0.01773664607320388</v>
+        <v>0.0167692430829442</v>
       </c>
       <c r="T16">
-        <v>0.01773664607320389</v>
+        <v>0.0167692430829442</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>351.7202226666666</v>
+        <v>274.366806</v>
       </c>
       <c r="H17">
-        <v>1055.160668</v>
+        <v>823.100418</v>
       </c>
       <c r="I17">
-        <v>0.6956575446665283</v>
+        <v>0.635350030255722</v>
       </c>
       <c r="J17">
-        <v>0.6956575446665283</v>
+        <v>0.635350030255722</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>73.27090866666667</v>
+        <v>69.44815566666666</v>
       </c>
       <c r="N17">
-        <v>219.812726</v>
+        <v>208.344467</v>
       </c>
       <c r="O17">
-        <v>0.7433568483938062</v>
+        <v>0.7273081849048799</v>
       </c>
       <c r="P17">
-        <v>0.7433568483938062</v>
+        <v>0.7273081849048799</v>
       </c>
       <c r="Q17">
-        <v>25770.860311229</v>
+        <v>19054.26865285413</v>
       </c>
       <c r="R17">
-        <v>231937.742801061</v>
+        <v>171488.4178756872</v>
       </c>
       <c r="S17">
-        <v>0.517121799964684</v>
+        <v>0.4620952772845497</v>
       </c>
       <c r="T17">
-        <v>0.517121799964684</v>
+        <v>0.4620952772845497</v>
       </c>
     </row>
   </sheetData>
